--- a/Brown Datathon 2019/PROTOTYPE_DASHBOARD.xlsx
+++ b/Brown Datathon 2019/PROTOTYPE_DASHBOARD.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1960" yWindow="0" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>AGE</t>
   </si>
@@ -44,12 +44,15 @@
   <si>
     <t>WEIGHT</t>
   </si>
+  <si>
+    <t>I am okay…….</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -108,6 +111,13 @@
       <sz val="26"/>
       <color theme="1"/>
       <name val="Caviar Dreams"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -238,6 +248,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -253,9 +287,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -274,52 +305,31 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -707,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q49"/>
+  <dimension ref="A1:W49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10:P37"/>
+      <selection activeCell="A22" sqref="A22:N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -719,7 +729,7 @@
     <col min="12" max="12" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:23">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -737,8 +747,14 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -756,8 +772,14 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -775,8 +797,14 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -794,8 +822,14 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -813,8 +847,14 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -832,8 +872,14 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -851,8 +897,14 @@
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -870,8 +922,14 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -889,282 +947,362 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
-    </row>
-    <row r="10" spans="1:17" ht="15" customHeight="1">
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+    </row>
+    <row r="10" spans="1:23" ht="15" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="23" t="s">
+      <c r="B10" s="27"/>
+      <c r="C10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="23" t="s">
+      <c r="D10" s="3"/>
+      <c r="E10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="23" t="s">
+      <c r="F10" s="3"/>
+      <c r="G10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="23" t="s">
+      <c r="H10" s="3"/>
+      <c r="I10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J10" s="24"/>
-      <c r="K10" s="23" t="s">
+      <c r="J10" s="3"/>
+      <c r="K10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L10" s="24"/>
-      <c r="M10" s="23" t="s">
+      <c r="L10" s="3"/>
+      <c r="M10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N10" s="24"/>
+      <c r="N10" s="3"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
-    </row>
-    <row r="11" spans="1:17" ht="15" customHeight="1">
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+    </row>
+    <row r="11" spans="1:23" ht="15" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="26"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="5"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
-    </row>
-    <row r="12" spans="1:17" ht="15" customHeight="1">
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+    </row>
+    <row r="12" spans="1:23" ht="15" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="26"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="5"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
-    </row>
-    <row r="13" spans="1:17" ht="15" customHeight="1">
-      <c r="A13" s="29"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="28"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+    </row>
+    <row r="13" spans="1:23" ht="15" customHeight="1">
+      <c r="A13" s="28"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="7"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="7" t="s">
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="22">
-        <v>22</v>
-      </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22">
-        <v>1</v>
-      </c>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22">
-        <v>1</v>
-      </c>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22">
+      <c r="B14" s="10"/>
+      <c r="C14" s="8">
+        <v>23</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8">
         <v>4</v>
       </c>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22">
-        <f>SUM(C14*E14)</f>
-        <v>22</v>
-      </c>
-      <c r="L14" s="22"/>
-      <c r="M14" s="16">
+      <c r="F14" s="8"/>
+      <c r="G14" s="8">
+        <v>0</v>
+      </c>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8">
+        <v>6</v>
+      </c>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8">
+        <f>SUM(LOG10(C14)*E14)</f>
+        <v>5.4469113440703714</v>
+      </c>
+      <c r="L14" s="8"/>
+      <c r="M14" s="21">
         <f>SUM(C18:L21)</f>
-        <v>0.51559816631077959</v>
-      </c>
-      <c r="N14" s="17"/>
+        <v>0.4189032361753034</v>
+      </c>
+      <c r="N14" s="22"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="19"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="24"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="19"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16" s="11"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="24"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="19"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="24"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="8" t="s">
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="22">
+      <c r="B18" s="16"/>
+      <c r="C18" s="8">
         <f>SUM(LOG10(C14)*(-0.0843783))</f>
-        <v>-0.11327134368922036</v>
-      </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22">
+        <v>-0.11490027986584325</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8">
         <f>SUM(E14*-0.0653129)</f>
-        <v>-6.5312899999999993E-2</v>
-      </c>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22">
+        <v>-0.26125159999999997</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8">
         <f>SUM(-0.05497119*G14)</f>
-        <v>-5.4971190000000003E-2</v>
-      </c>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22">
+        <v>0</v>
+      </c>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8">
         <f>SUM(0.12168*I14)</f>
-        <v>0.48671999999999999</v>
-      </c>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22">
+        <v>0.73007999999999995</v>
+      </c>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8">
         <f>SUM(K14*0.0119288)</f>
-        <v>0.26243359999999999</v>
-      </c>
-      <c r="L18" s="22"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="19"/>
+        <v>6.4975116041146641E-2</v>
+      </c>
+      <c r="L18" s="8"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="24"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="19"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19" s="17"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="24"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="10"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="19"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="17"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="24"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="12"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="21"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="19"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="26"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="30"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="30" t="s">
+        <v>8</v>
+      </c>
       <c r="B22" s="30"/>
       <c r="C22" s="30"/>
       <c r="D22" s="30"/>
@@ -1181,8 +1319,14 @@
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+    </row>
+    <row r="23" spans="1:23">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1200,8 +1344,14 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+    </row>
+    <row r="24" spans="1:23">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1219,8 +1369,14 @@
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+    </row>
+    <row r="25" spans="1:23">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1238,8 +1394,14 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
-    </row>
-    <row r="26" spans="1:17">
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+    </row>
+    <row r="26" spans="1:23">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1257,8 +1419,14 @@
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
-    </row>
-    <row r="27" spans="1:17">
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+    </row>
+    <row r="27" spans="1:23">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1276,8 +1444,14 @@
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
-    </row>
-    <row r="28" spans="1:17">
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+    </row>
+    <row r="28" spans="1:23">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1295,8 +1469,14 @@
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
-    </row>
-    <row r="29" spans="1:17">
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+    </row>
+    <row r="29" spans="1:23">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1314,8 +1494,14 @@
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
-    </row>
-    <row r="30" spans="1:17">
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+    </row>
+    <row r="30" spans="1:23">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1333,8 +1519,14 @@
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
-    </row>
-    <row r="31" spans="1:17">
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+    </row>
+    <row r="31" spans="1:23">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1352,8 +1544,14 @@
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
-    </row>
-    <row r="32" spans="1:17">
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+    </row>
+    <row r="32" spans="1:23">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1371,8 +1569,14 @@
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
-    </row>
-    <row r="33" spans="1:17">
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+    </row>
+    <row r="33" spans="1:23">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1390,8 +1594,14 @@
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
-    </row>
-    <row r="34" spans="1:17">
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+    </row>
+    <row r="34" spans="1:23">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1409,8 +1619,14 @@
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
-    </row>
-    <row r="35" spans="1:17">
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+    </row>
+    <row r="35" spans="1:23">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1428,8 +1644,14 @@
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
-    </row>
-    <row r="36" spans="1:17">
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+    </row>
+    <row r="36" spans="1:23">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1447,8 +1669,14 @@
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
-    </row>
-    <row r="37" spans="1:17">
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+    </row>
+    <row r="37" spans="1:23">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1466,53 +1694,123 @@
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
-    </row>
-    <row r="38" spans="1:17">
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+    </row>
+    <row r="38" spans="1:23">
       <c r="Q38" s="1"/>
-    </row>
-    <row r="39" spans="1:17">
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+    </row>
+    <row r="39" spans="1:23">
       <c r="Q39" s="1"/>
-    </row>
-    <row r="40" spans="1:17">
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+    </row>
+    <row r="40" spans="1:23">
       <c r="Q40" s="1"/>
-    </row>
-    <row r="41" spans="1:17">
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+    </row>
+    <row r="41" spans="1:23">
       <c r="Q41" s="1"/>
-    </row>
-    <row r="42" spans="1:17">
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+    </row>
+    <row r="42" spans="1:23">
       <c r="Q42" s="1"/>
-    </row>
-    <row r="43" spans="1:17">
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
+    </row>
+    <row r="43" spans="1:23">
       <c r="Q43" s="1"/>
-    </row>
-    <row r="44" spans="1:17">
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+    </row>
+    <row r="44" spans="1:23">
       <c r="Q44" s="1"/>
-    </row>
-    <row r="45" spans="1:17">
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
+    </row>
+    <row r="45" spans="1:23">
       <c r="Q45" s="1"/>
-    </row>
-    <row r="46" spans="1:17">
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
+    </row>
+    <row r="46" spans="1:23">
       <c r="Q46" s="1"/>
-    </row>
-    <row r="47" spans="1:17">
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
+    </row>
+    <row r="47" spans="1:23">
       <c r="Q47" s="1"/>
-    </row>
-    <row r="48" spans="1:17">
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1"/>
+    </row>
+    <row r="48" spans="1:23">
       <c r="Q48" s="1"/>
-    </row>
-    <row r="49" spans="17:17">
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
+      <c r="W48" s="1"/>
+    </row>
+    <row r="49" spans="17:23">
       <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
+      <c r="W49" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="Q1:Q49"/>
-    <mergeCell ref="A14:B17"/>
-    <mergeCell ref="A18:B21"/>
-    <mergeCell ref="M14:N21"/>
-    <mergeCell ref="A1:P9"/>
-    <mergeCell ref="A10:B13"/>
-    <mergeCell ref="A22:N37"/>
-    <mergeCell ref="O10:P37"/>
     <mergeCell ref="M10:N13"/>
     <mergeCell ref="C14:D17"/>
     <mergeCell ref="E14:F17"/>
@@ -1521,6 +1819,9 @@
     <mergeCell ref="K14:L17"/>
     <mergeCell ref="E10:F13"/>
     <mergeCell ref="G10:H13"/>
+    <mergeCell ref="Q1:W49"/>
+    <mergeCell ref="O1:P37"/>
+    <mergeCell ref="A1:N9"/>
     <mergeCell ref="C10:D13"/>
     <mergeCell ref="I10:J13"/>
     <mergeCell ref="K10:L13"/>
@@ -1529,7 +1830,13 @@
     <mergeCell ref="G18:H21"/>
     <mergeCell ref="I18:J21"/>
     <mergeCell ref="K18:L21"/>
+    <mergeCell ref="A14:B17"/>
+    <mergeCell ref="A18:B21"/>
+    <mergeCell ref="M14:N21"/>
+    <mergeCell ref="A10:B13"/>
+    <mergeCell ref="A22:N37"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>

--- a/Brown Datathon 2019/PROTOTYPE_DASHBOARD.xlsx
+++ b/Brown Datathon 2019/PROTOTYPE_DASHBOARD.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="1960" yWindow="0" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>AGE</t>
   </si>
@@ -44,15 +44,12 @@
   <si>
     <t>WEIGHT</t>
   </si>
-  <si>
-    <t>I am okay…….</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -111,13 +108,6 @@
       <sz val="26"/>
       <color theme="1"/>
       <name val="Caviar Dreams"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -248,6 +238,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -266,70 +319,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -717,10 +707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W49"/>
+  <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:N37"/>
+      <selection activeCell="O10" sqref="O10:P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -729,7 +719,7 @@
     <col min="12" max="12" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:17">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -747,14 +737,8 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-    </row>
-    <row r="2" spans="1:23">
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -772,14 +756,8 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-    </row>
-    <row r="3" spans="1:23">
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -797,14 +775,8 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-    </row>
-    <row r="4" spans="1:23">
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -822,14 +794,8 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-    </row>
-    <row r="5" spans="1:23">
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -847,14 +813,8 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-    </row>
-    <row r="6" spans="1:23">
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -872,14 +832,8 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-    </row>
-    <row r="7" spans="1:23">
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -897,14 +851,8 @@
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-    </row>
-    <row r="8" spans="1:23">
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -922,14 +870,8 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-    </row>
-    <row r="9" spans="1:23">
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -947,362 +889,282 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-    </row>
-    <row r="10" spans="1:23" ht="15" customHeight="1">
+    </row>
+    <row r="10" spans="1:17" ht="15" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="14"/>
+      <c r="C10" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="2" t="s">
+      <c r="D10" s="24"/>
+      <c r="E10" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="2" t="s">
+      <c r="F10" s="24"/>
+      <c r="G10" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="2" t="s">
+      <c r="H10" s="24"/>
+      <c r="I10" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="2" t="s">
+      <c r="J10" s="24"/>
+      <c r="K10" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="L10" s="3"/>
-      <c r="M10" s="2" t="s">
+      <c r="L10" s="24"/>
+      <c r="M10" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="N10" s="3"/>
+      <c r="N10" s="24"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-    </row>
-    <row r="11" spans="1:23" ht="15" customHeight="1">
+    </row>
+    <row r="11" spans="1:17" ht="15" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="5"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="26"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-    </row>
-    <row r="12" spans="1:23" ht="15" customHeight="1">
+    </row>
+    <row r="12" spans="1:17" ht="15" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="5"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="26"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-    </row>
-    <row r="13" spans="1:23" ht="15" customHeight="1">
-      <c r="A13" s="28"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="7"/>
+    </row>
+    <row r="13" spans="1:17" ht="15" customHeight="1">
+      <c r="A13" s="29"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="28"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-    </row>
-    <row r="14" spans="1:23">
-      <c r="A14" s="9" t="s">
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="8">
-        <v>23</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8">
+      <c r="B14" s="2"/>
+      <c r="C14" s="22">
+        <v>22</v>
+      </c>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22">
+        <v>1</v>
+      </c>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22">
+        <v>1</v>
+      </c>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22">
         <v>4</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8">
-        <v>0</v>
-      </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8">
-        <v>6</v>
-      </c>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8">
-        <f>SUM(LOG10(C14)*E14)</f>
-        <v>5.4469113440703714</v>
-      </c>
-      <c r="L14" s="8"/>
-      <c r="M14" s="21">
+      <c r="J14" s="22"/>
+      <c r="K14" s="22">
+        <f>SUM(C14*E14)</f>
+        <v>22</v>
+      </c>
+      <c r="L14" s="22"/>
+      <c r="M14" s="16">
         <f>SUM(C18:L21)</f>
-        <v>0.4189032361753034</v>
-      </c>
-      <c r="N14" s="22"/>
+        <v>0.51559816631077959</v>
+      </c>
+      <c r="N14" s="17"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-    </row>
-    <row r="15" spans="1:23">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="24"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="19"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-    </row>
-    <row r="16" spans="1:23">
-      <c r="A16" s="11"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="24"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="19"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-    </row>
-    <row r="17" spans="1:23">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="24"/>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="19"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-    </row>
-    <row r="18" spans="1:23">
-      <c r="A18" s="15" t="s">
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="8">
+      <c r="B18" s="9"/>
+      <c r="C18" s="22">
         <f>SUM(LOG10(C14)*(-0.0843783))</f>
-        <v>-0.11490027986584325</v>
-      </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8">
+        <v>-0.11327134368922036</v>
+      </c>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22">
         <f>SUM(E14*-0.0653129)</f>
-        <v>-0.26125159999999997</v>
-      </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8">
+        <v>-6.5312899999999993E-2</v>
+      </c>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22">
         <f>SUM(-0.05497119*G14)</f>
-        <v>0</v>
-      </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8">
+        <v>-5.4971190000000003E-2</v>
+      </c>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22">
         <f>SUM(0.12168*I14)</f>
-        <v>0.73007999999999995</v>
-      </c>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8">
+        <v>0.48671999999999999</v>
+      </c>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22">
         <f>SUM(K14*0.0119288)</f>
-        <v>6.4975116041146641E-2</v>
-      </c>
-      <c r="L18" s="8"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="24"/>
+        <v>0.26243359999999999</v>
+      </c>
+      <c r="L18" s="22"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="19"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
-    </row>
-    <row r="19" spans="1:23">
-      <c r="A19" s="17"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="24"/>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="19"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-    </row>
-    <row r="20" spans="1:23">
-      <c r="A20" s="17"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="24"/>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="10"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="19"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
-    </row>
-    <row r="21" spans="1:23">
-      <c r="A21" s="19"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="26"/>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="12"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="21"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
-    </row>
-    <row r="22" spans="1:23">
-      <c r="A22" s="30" t="s">
-        <v>8</v>
-      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="30"/>
       <c r="B22" s="30"/>
       <c r="C22" s="30"/>
       <c r="D22" s="30"/>
@@ -1319,14 +1181,8 @@
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
-    </row>
-    <row r="23" spans="1:23">
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1344,14 +1200,8 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
-      <c r="W23" s="1"/>
-    </row>
-    <row r="24" spans="1:23">
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1369,14 +1219,8 @@
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
-      <c r="W24" s="1"/>
-    </row>
-    <row r="25" spans="1:23">
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1394,14 +1238,8 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
-      <c r="W25" s="1"/>
-    </row>
-    <row r="26" spans="1:23">
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1419,14 +1257,8 @@
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
-      <c r="W26" s="1"/>
-    </row>
-    <row r="27" spans="1:23">
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1444,14 +1276,8 @@
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
-    </row>
-    <row r="28" spans="1:23">
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1469,14 +1295,8 @@
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
-      <c r="U28" s="1"/>
-      <c r="V28" s="1"/>
-      <c r="W28" s="1"/>
-    </row>
-    <row r="29" spans="1:23">
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1494,14 +1314,8 @@
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
-      <c r="U29" s="1"/>
-      <c r="V29" s="1"/>
-      <c r="W29" s="1"/>
-    </row>
-    <row r="30" spans="1:23">
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1519,14 +1333,8 @@
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
-      <c r="W30" s="1"/>
-    </row>
-    <row r="31" spans="1:23">
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1544,14 +1352,8 @@
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
-      <c r="W31" s="1"/>
-    </row>
-    <row r="32" spans="1:23">
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1569,14 +1371,8 @@
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
-      <c r="W32" s="1"/>
-    </row>
-    <row r="33" spans="1:23">
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1594,14 +1390,8 @@
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
-      <c r="V33" s="1"/>
-      <c r="W33" s="1"/>
-    </row>
-    <row r="34" spans="1:23">
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1619,14 +1409,8 @@
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
-      <c r="U34" s="1"/>
-      <c r="V34" s="1"/>
-      <c r="W34" s="1"/>
-    </row>
-    <row r="35" spans="1:23">
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1644,14 +1428,8 @@
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
-      <c r="T35" s="1"/>
-      <c r="U35" s="1"/>
-      <c r="V35" s="1"/>
-      <c r="W35" s="1"/>
-    </row>
-    <row r="36" spans="1:23">
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1669,14 +1447,8 @@
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
-      <c r="U36" s="1"/>
-      <c r="V36" s="1"/>
-      <c r="W36" s="1"/>
-    </row>
-    <row r="37" spans="1:23">
+    </row>
+    <row r="37" spans="1:17">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1694,123 +1466,53 @@
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
-      <c r="S37" s="1"/>
-      <c r="T37" s="1"/>
-      <c r="U37" s="1"/>
-      <c r="V37" s="1"/>
-      <c r="W37" s="1"/>
-    </row>
-    <row r="38" spans="1:23">
+    </row>
+    <row r="38" spans="1:17">
       <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
-      <c r="S38" s="1"/>
-      <c r="T38" s="1"/>
-      <c r="U38" s="1"/>
-      <c r="V38" s="1"/>
-      <c r="W38" s="1"/>
-    </row>
-    <row r="39" spans="1:23">
+    </row>
+    <row r="39" spans="1:17">
       <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
-      <c r="S39" s="1"/>
-      <c r="T39" s="1"/>
-      <c r="U39" s="1"/>
-      <c r="V39" s="1"/>
-      <c r="W39" s="1"/>
-    </row>
-    <row r="40" spans="1:23">
+    </row>
+    <row r="40" spans="1:17">
       <c r="Q40" s="1"/>
-      <c r="R40" s="1"/>
-      <c r="S40" s="1"/>
-      <c r="T40" s="1"/>
-      <c r="U40" s="1"/>
-      <c r="V40" s="1"/>
-      <c r="W40" s="1"/>
-    </row>
-    <row r="41" spans="1:23">
+    </row>
+    <row r="41" spans="1:17">
       <c r="Q41" s="1"/>
-      <c r="R41" s="1"/>
-      <c r="S41" s="1"/>
-      <c r="T41" s="1"/>
-      <c r="U41" s="1"/>
-      <c r="V41" s="1"/>
-      <c r="W41" s="1"/>
-    </row>
-    <row r="42" spans="1:23">
+    </row>
+    <row r="42" spans="1:17">
       <c r="Q42" s="1"/>
-      <c r="R42" s="1"/>
-      <c r="S42" s="1"/>
-      <c r="T42" s="1"/>
-      <c r="U42" s="1"/>
-      <c r="V42" s="1"/>
-      <c r="W42" s="1"/>
-    </row>
-    <row r="43" spans="1:23">
+    </row>
+    <row r="43" spans="1:17">
       <c r="Q43" s="1"/>
-      <c r="R43" s="1"/>
-      <c r="S43" s="1"/>
-      <c r="T43" s="1"/>
-      <c r="U43" s="1"/>
-      <c r="V43" s="1"/>
-      <c r="W43" s="1"/>
-    </row>
-    <row r="44" spans="1:23">
+    </row>
+    <row r="44" spans="1:17">
       <c r="Q44" s="1"/>
-      <c r="R44" s="1"/>
-      <c r="S44" s="1"/>
-      <c r="T44" s="1"/>
-      <c r="U44" s="1"/>
-      <c r="V44" s="1"/>
-      <c r="W44" s="1"/>
-    </row>
-    <row r="45" spans="1:23">
+    </row>
+    <row r="45" spans="1:17">
       <c r="Q45" s="1"/>
-      <c r="R45" s="1"/>
-      <c r="S45" s="1"/>
-      <c r="T45" s="1"/>
-      <c r="U45" s="1"/>
-      <c r="V45" s="1"/>
-      <c r="W45" s="1"/>
-    </row>
-    <row r="46" spans="1:23">
+    </row>
+    <row r="46" spans="1:17">
       <c r="Q46" s="1"/>
-      <c r="R46" s="1"/>
-      <c r="S46" s="1"/>
-      <c r="T46" s="1"/>
-      <c r="U46" s="1"/>
-      <c r="V46" s="1"/>
-      <c r="W46" s="1"/>
-    </row>
-    <row r="47" spans="1:23">
+    </row>
+    <row r="47" spans="1:17">
       <c r="Q47" s="1"/>
-      <c r="R47" s="1"/>
-      <c r="S47" s="1"/>
-      <c r="T47" s="1"/>
-      <c r="U47" s="1"/>
-      <c r="V47" s="1"/>
-      <c r="W47" s="1"/>
-    </row>
-    <row r="48" spans="1:23">
+    </row>
+    <row r="48" spans="1:17">
       <c r="Q48" s="1"/>
-      <c r="R48" s="1"/>
-      <c r="S48" s="1"/>
-      <c r="T48" s="1"/>
-      <c r="U48" s="1"/>
-      <c r="V48" s="1"/>
-      <c r="W48" s="1"/>
-    </row>
-    <row r="49" spans="17:23">
+    </row>
+    <row r="49" spans="17:17">
       <c r="Q49" s="1"/>
-      <c r="R49" s="1"/>
-      <c r="S49" s="1"/>
-      <c r="T49" s="1"/>
-      <c r="U49" s="1"/>
-      <c r="V49" s="1"/>
-      <c r="W49" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="Q1:Q49"/>
+    <mergeCell ref="A14:B17"/>
+    <mergeCell ref="A18:B21"/>
+    <mergeCell ref="M14:N21"/>
+    <mergeCell ref="A1:P9"/>
+    <mergeCell ref="A10:B13"/>
+    <mergeCell ref="A22:N37"/>
+    <mergeCell ref="O10:P37"/>
     <mergeCell ref="M10:N13"/>
     <mergeCell ref="C14:D17"/>
     <mergeCell ref="E14:F17"/>
@@ -1819,9 +1521,6 @@
     <mergeCell ref="K14:L17"/>
     <mergeCell ref="E10:F13"/>
     <mergeCell ref="G10:H13"/>
-    <mergeCell ref="Q1:W49"/>
-    <mergeCell ref="O1:P37"/>
-    <mergeCell ref="A1:N9"/>
     <mergeCell ref="C10:D13"/>
     <mergeCell ref="I10:J13"/>
     <mergeCell ref="K10:L13"/>
@@ -1830,13 +1529,7 @@
     <mergeCell ref="G18:H21"/>
     <mergeCell ref="I18:J21"/>
     <mergeCell ref="K18:L21"/>
-    <mergeCell ref="A14:B17"/>
-    <mergeCell ref="A18:B21"/>
-    <mergeCell ref="M14:N21"/>
-    <mergeCell ref="A10:B13"/>
-    <mergeCell ref="A22:N37"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
